--- a/2021/April/Day 10/Project plan.xlsx
+++ b/2021/April/Day 10/Project plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabarishsridhar/Projects/Daily Work Space/2021/April/Day 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7CC21D-F535-354B-BEC6-8E7C6E872186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FDD45D-399A-5943-85FA-58EF80C6E6B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15800" xr2:uid="{E22AB5D5-22F4-1C49-A8F0-181B73A9A826}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -1095,7 +1095,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>

--- a/2021/April/Day 10/Project plan.xlsx
+++ b/2021/April/Day 10/Project plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabarishsridhar/Projects/Daily Work Space/2021/April/Day 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FDD45D-399A-5943-85FA-58EF80C6E6B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0469BC31-4C0E-D044-9B3F-120750D26EED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15800" xr2:uid="{E22AB5D5-22F4-1C49-A8F0-181B73A9A826}"/>
   </bookViews>
